--- a/test/tests_cases/PE-16/TC-01.xlsx
+++ b/test/tests_cases/PE-16/TC-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Test Case Description</t>
   </si>
   <si>
+    <t>Crear un usuario nuevo</t>
+  </si>
+  <si>
     <t>Created By</t>
   </si>
   <si>
@@ -37,13 +40,16 @@
     <t>QA Tester’s Log</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Version</t>
   </si>
   <si>
     <t>TC Priority (High, Normal, Low)</t>
   </si>
   <si>
-    <t>High</t>
+    <t>Normal</t>
   </si>
   <si>
     <t>S #</t>
@@ -55,12 +61,54 @@
     <t>Test Data</t>
   </si>
   <si>
+    <t>Acceso a internet</t>
+  </si>
+  <si>
+    <t>Nombre: Juan</t>
+  </si>
+  <si>
     <t>Acceso a Google Chrome</t>
   </si>
   <si>
+    <t>Apellido: Lopez</t>
+  </si>
+  <si>
+    <t>Tener un email</t>
+  </si>
+  <si>
+    <t>Email: Prueba@gmail.com</t>
+  </si>
+  <si>
+    <t>Pass: PruebaTC1!</t>
+  </si>
+  <si>
+    <t>Fecha: 01/01/1993</t>
+  </si>
+  <si>
+    <t>Dir:  5th Avenue 125</t>
+  </si>
+  <si>
+    <t>Ciudad: Manhattan</t>
+  </si>
+  <si>
+    <t>Estado: New York</t>
+  </si>
+  <si>
+    <t>Cod postal: 10001</t>
+  </si>
+  <si>
+    <t>Country: United States</t>
+  </si>
+  <si>
+    <t>Phone: +1 470-673-5156</t>
+  </si>
+  <si>
     <t>Test Scenario</t>
   </si>
   <si>
+    <t>Creacion de un nuevo usuario</t>
+  </si>
+  <si>
     <t>Executions</t>
   </si>
   <si>
@@ -110,6 +158,30 @@
   </si>
   <si>
     <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>Se ingresa a la direccion de plataforma ecommerce</t>
+  </si>
+  <si>
+    <t>Se abre la pagina correctamente</t>
+  </si>
+  <si>
+    <t>Se ingresa al boton de registrar usuario</t>
+  </si>
+  <si>
+    <t>Se dirige al form para registrar</t>
+  </si>
+  <si>
+    <t>Se ingresan todos los datos del test data</t>
+  </si>
+  <si>
+    <t>Se habilita el boton para crear usuario</t>
+  </si>
+  <si>
+    <t>Se presiona sobre el boton de crear usuario</t>
+  </si>
+  <si>
+    <t>El usuario se registra exitosamente</t>
   </si>
   <si>
     <t>Defects Created</t>
@@ -120,12 +192,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,9 +286,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,16 +372,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,123 +425,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,175 +453,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,6 +763,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -735,17 +800,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -842,11 +896,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,8 +915,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,162 +946,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="37" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1050,10 +1104,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1101,16 +1155,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1512,10 +1581,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D30" sqref="D30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1523,7 +1592,7 @@
     <col min="1" max="1" width="11.1388888888889" customWidth="1"/>
     <col min="2" max="2" width="21.4259259259259" customWidth="1"/>
     <col min="3" max="4" width="13.8518518518519" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.3888888888889" customWidth="1"/>
     <col min="6" max="6" width="2.57407407407407" customWidth="1"/>
     <col min="7" max="7" width="14.5740740740741" customWidth="1"/>
     <col min="8" max="8" width="18.287037037037" customWidth="1"/>
@@ -1535,7 +1604,7 @@
     <col min="14" max="14" width="18.287037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.45" customHeight="1" spans="1:5">
+    <row r="1" ht="11" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1545,29 +1614,33 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="9">
         <v>0.1</v>
@@ -1591,10 +1664,10 @@
     </row>
     <row r="5" ht="20.4" spans="1:23">
       <c r="A5" s="14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -1617,16 +1690,16 @@
     <row r="6" ht="14.45" customHeight="1"/>
     <row r="7" spans="1:5">
       <c r="A7" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="13" customHeight="1" spans="1:5">
@@ -1634,371 +1707,498 @@
         <v>1</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="21">
         <v>1</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" ht="14.45" customHeight="1" spans="1:5">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="21">
         <v>2</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="20" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="20" t="s">
+        <v>19</v>
+      </c>
       <c r="D10" s="21">
         <v>3</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="D11" s="21">
         <v>4</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="E11" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="12"/>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="22"/>
+      <c r="B12" s="12"/>
+      <c r="D12" s="21">
+        <v>5</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="12"/>
+    </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="12"/>
+      <c r="D13" s="21">
+        <v>6</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" ht="17.1" spans="1:14">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="G14" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-    </row>
-    <row r="15" ht="21.9" spans="1:14">
-      <c r="A15" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="35"/>
-    </row>
-    <row r="16" ht="15.9" spans="7:14">
-      <c r="G16" s="36" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="22"/>
+      <c r="B14" s="12"/>
+      <c r="D14" s="21">
+        <v>7</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36" t="s">
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="22"/>
+      <c r="B15" s="12"/>
+      <c r="D15" s="21">
+        <v>8</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="37"/>
-      <c r="K16" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="37"/>
-      <c r="M16" s="36" t="s">
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="22"/>
+      <c r="B16" s="12"/>
+      <c r="D16" s="21">
+        <v>9</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="37"/>
-    </row>
-    <row r="17" ht="28.35" spans="1:14">
-      <c r="A17" s="38" t="s">
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="21">
+        <v>10</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="39" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="21">
+        <v>11</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41" t="s">
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="21">
+        <v>12</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="21">
+        <v>13</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="G17" s="43" t="s">
+      <c r="B21" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="43" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" ht="17.1" spans="1:14">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="G22" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="44">
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+    </row>
+    <row r="23" ht="21.9" spans="1:14">
+      <c r="A23" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="40"/>
+    </row>
+    <row r="24" ht="15.9" spans="7:14">
+      <c r="G24" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="42"/>
+      <c r="K24" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="42"/>
+      <c r="M24" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="42"/>
+    </row>
+    <row r="25" ht="28.35" spans="1:14">
+      <c r="A25" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="47"/>
+      <c r="G25" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" ht="26" customHeight="1" spans="1:14">
+      <c r="A26" s="49">
         <v>1</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="48"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="44">
+      <c r="B26" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="53"/>
+    </row>
+    <row r="27" ht="22" customHeight="1" spans="1:14">
+      <c r="A27" s="49">
         <v>2</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="48"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="44">
+      <c r="B27" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="53"/>
+    </row>
+    <row r="28" ht="17" customHeight="1" spans="1:14">
+      <c r="A28" s="49">
         <v>3</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="48"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="44">
+      <c r="B28" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="53"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="49">
         <v>4</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="20"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="20"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="20"/>
-    </row>
-    <row r="25" spans="7:14">
-      <c r="G25" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="50"/>
-    </row>
-    <row r="26" ht="26.1" customHeight="1" spans="7:14">
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-    </row>
-    <row r="27" ht="26.1" customHeight="1" spans="7:14">
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-    </row>
-    <row r="28" ht="26.1" customHeight="1" spans="7:14">
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-    </row>
-    <row r="29" ht="26.1" customHeight="1" spans="7:14">
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-    </row>
-    <row r="30" ht="26.1" customHeight="1" spans="7:14">
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
+      <c r="B29" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="20"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="20"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="20"/>
+    </row>
+    <row r="33" spans="7:14">
+      <c r="G33" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="55"/>
+    </row>
+    <row r="34" ht="26.1" customHeight="1" spans="7:14">
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+    </row>
+    <row r="35" ht="26.1" customHeight="1" spans="7:14">
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+    </row>
+    <row r="36" ht="26.1" customHeight="1" spans="7:14">
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+    </row>
+    <row r="37" ht="26.1" customHeight="1" spans="7:14">
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+    </row>
+    <row r="38" ht="26.1" customHeight="1" spans="7:14">
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="50">
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
